--- a/data/occ_code_reference.xlsx
+++ b/data/occ_code_reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoria/Desktop/6220/Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7184815F-8BD4-0C47-B4D5-DEAE0997CDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118D454-821D-BF4C-BB01-A817EDEDB1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27240" windowHeight="16440" xr2:uid="{DBD3C580-4880-4B4C-8F27-708589DFFEB8}"/>
+    <workbookView xWindow="2960" yWindow="560" windowWidth="27240" windowHeight="16440" xr2:uid="{DBD3C580-4880-4B4C-8F27-708589DFFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EA535D-E86E-3D4D-8380-DB892367F491}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
